--- a/MONO131/CANJEM_IPUMS analysis/intermediate data/isco68to88V1.xlsx
+++ b/MONO131/CANJEM_IPUMS analysis/intermediate data/isco68to88V1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1086"/>
+  <dimension ref="A1:G1088"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13193,14 +13193,19 @@
           <t>131</t>
         </is>
       </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Ganz missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -16168,14 +16173,19 @@
           <t>611</t>
         </is>
       </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>Ganz missing</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -25702,20 +25712,20 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>8-35.90</t>
+          <t>8-35.20</t>
         </is>
       </c>
       <c r="B751">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>821</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F751" t="inlineStr">
@@ -25725,27 +25735,22 @@
       </c>
       <c r="G751" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>821</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>8-39.20</t>
+          <t>8-35.30</t>
         </is>
       </c>
       <c r="B752">
-        <v>4</v>
-      </c>
-      <c r="C752" t="inlineStr">
-        <is>
-          <t>722</t>
-        </is>
+        <v>10</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>821</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
@@ -25755,42 +25760,37 @@
       </c>
       <c r="F752" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G752" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>821</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>8-39.30</t>
+          <t>8-35.90</t>
         </is>
       </c>
       <c r="B753">
-        <v>6</v>
-      </c>
-      <c r="C753" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="D753" t="inlineStr">
         <is>
           <t>722</t>
         </is>
       </c>
-      <c r="D753" t="inlineStr">
-        <is>
-          <t>722</t>
-        </is>
-      </c>
       <c r="E753" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F753" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G753" t="inlineStr">
@@ -25802,11 +25802,16 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>8-39.40</t>
+          <t>8-39.20</t>
         </is>
       </c>
       <c r="B754">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -25820,7 +25825,7 @@
       </c>
       <c r="F754" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G754" t="inlineStr">
@@ -25832,11 +25837,16 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>8-39.50</t>
+          <t>8-39.30</t>
         </is>
       </c>
       <c r="B755">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -25850,7 +25860,7 @@
       </c>
       <c r="F755" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G755" t="inlineStr">
@@ -25862,16 +25872,11 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>8-39.60</t>
+          <t>8-39.40</t>
         </is>
       </c>
       <c r="B756">
-        <v>44</v>
-      </c>
-      <c r="C756" t="inlineStr">
-        <is>
-          <t>821</t>
-        </is>
+        <v>1</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -25885,28 +25890,23 @@
       </c>
       <c r="F756" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G756" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>722</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>8-39.70</t>
+          <t>8-39.50</t>
         </is>
       </c>
       <c r="B757">
-        <v>6</v>
-      </c>
-      <c r="C757" t="inlineStr">
-        <is>
-          <t>821</t>
-        </is>
+        <v>4</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -25920,23 +25920,23 @@
       </c>
       <c r="F757" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G757" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>722</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>8-39.80</t>
+          <t>8-39.60</t>
         </is>
       </c>
       <c r="B758">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
@@ -25967,11 +25967,11 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>8-39.90</t>
+          <t>8-39.70</t>
         </is>
       </c>
       <c r="B759">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C759" t="inlineStr">
         <is>
@@ -26002,20 +26002,20 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>8-41.05</t>
+          <t>8-39.80</t>
         </is>
       </c>
       <c r="B760">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>821</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>722</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
@@ -26025,58 +26025,63 @@
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G760" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>821</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>8-41.10</t>
+          <t>8-39.90</t>
         </is>
       </c>
       <c r="B761">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>821</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>722</t>
         </is>
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F761" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G761" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>821</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>8-41.15</t>
+          <t>8-41.05</t>
         </is>
       </c>
       <c r="B762">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -26090,7 +26095,7 @@
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G762" t="inlineStr">
@@ -26102,15 +26107,20 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>8-41.20</t>
+          <t>8-41.10</t>
         </is>
       </c>
       <c r="B763">
-        <v>26</v>
+        <v>51</v>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>828</t>
         </is>
       </c>
       <c r="E763" t="inlineStr">
@@ -26120,23 +26130,23 @@
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>828</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>8-41.25</t>
+          <t>8-41.15</t>
         </is>
       </c>
       <c r="B764">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -26162,11 +26172,11 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>8-41.35</t>
+          <t>8-41.20</t>
         </is>
       </c>
       <c r="B765">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -26175,7 +26185,7 @@
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F765" t="inlineStr">
@@ -26192,11 +26202,11 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>8-41.40</t>
+          <t>8-41.25</t>
         </is>
       </c>
       <c r="B766">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -26222,11 +26232,11 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>8-41.45</t>
+          <t>8-41.35</t>
         </is>
       </c>
       <c r="B767">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -26252,11 +26262,11 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>8-41.50</t>
+          <t>8-41.40</t>
         </is>
       </c>
       <c r="B768">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -26282,7 +26292,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>8-41.55</t>
+          <t>8-41.45</t>
         </is>
       </c>
       <c r="B769">
@@ -26312,11 +26322,11 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>8-41.60</t>
+          <t>8-41.50</t>
         </is>
       </c>
       <c r="B770">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -26342,11 +26352,11 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>8-41.70</t>
+          <t>8-41.55</t>
         </is>
       </c>
       <c r="B771">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -26372,22 +26382,17 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>8-41.75</t>
+          <t>8-41.60</t>
         </is>
       </c>
       <c r="B772">
-        <v>5</v>
-      </c>
-      <c r="C772" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="D772" t="inlineStr">
         <is>
           <t>723</t>
         </is>
       </c>
-      <c r="D772" t="inlineStr">
-        <is>
-          <t>723</t>
-        </is>
-      </c>
       <c r="E772" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -26395,7 +26400,7 @@
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G772" t="inlineStr">
@@ -26407,22 +26412,17 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>8-41.80</t>
+          <t>8-41.70</t>
         </is>
       </c>
       <c r="B773">
-        <v>20</v>
-      </c>
-      <c r="C773" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="D773" t="inlineStr">
         <is>
           <t>723</t>
         </is>
       </c>
-      <c r="D773" t="inlineStr">
-        <is>
-          <t>723</t>
-        </is>
-      </c>
       <c r="E773" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -26430,7 +26430,7 @@
       </c>
       <c r="F773" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G773" t="inlineStr">
@@ -26442,11 +26442,11 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>8-41.85</t>
+          <t>8-41.75</t>
         </is>
       </c>
       <c r="B774">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
@@ -26477,11 +26477,16 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>8-41.90</t>
+          <t>8-41.80</t>
         </is>
       </c>
       <c r="B775">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -26490,12 +26495,12 @@
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G775" t="inlineStr">
@@ -26507,95 +26512,90 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>8-42.20</t>
+          <t>8-41.85</t>
         </is>
       </c>
       <c r="B776">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>723</t>
         </is>
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G776" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>723</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>8-42.25</t>
+          <t>8-41.90</t>
         </is>
       </c>
       <c r="B777">
-        <v>24</v>
-      </c>
-      <c r="C777" t="inlineStr">
-        <is>
-          <t>731</t>
-        </is>
+        <v>5</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>723</t>
         </is>
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F777" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G777" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>723</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>8-42.30</t>
+          <t>8-42.20</t>
         </is>
       </c>
       <c r="B778">
-        <v>11</v>
-      </c>
-      <c r="C778" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D778" t="inlineStr">
         <is>
           <t>731</t>
         </is>
       </c>
-      <c r="D778" t="inlineStr">
-        <is>
-          <t>731</t>
-        </is>
-      </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G778" t="inlineStr">
@@ -26607,11 +26607,16 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>8-42.40</t>
+          <t>8-42.25</t>
         </is>
       </c>
       <c r="B779">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -26625,7 +26630,7 @@
       </c>
       <c r="F779" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G779" t="inlineStr">
@@ -26637,11 +26642,11 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>8-42.45</t>
+          <t>8-42.30</t>
         </is>
       </c>
       <c r="B780">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C780" t="inlineStr">
         <is>
@@ -26672,22 +26677,17 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>8-42.50</t>
+          <t>8-42.40</t>
         </is>
       </c>
       <c r="B781">
-        <v>20</v>
-      </c>
-      <c r="C781" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="D781" t="inlineStr">
         <is>
           <t>731</t>
         </is>
       </c>
-      <c r="D781" t="inlineStr">
-        <is>
-          <t>731</t>
-        </is>
-      </c>
       <c r="E781" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -26695,7 +26695,7 @@
       </c>
       <c r="F781" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G781" t="inlineStr">
@@ -26707,7 +26707,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>8-42.90</t>
+          <t>8-42.45</t>
         </is>
       </c>
       <c r="B782">
@@ -26725,7 +26725,7 @@
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F782" t="inlineStr">
@@ -26742,20 +26742,20 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>8-43.20</t>
+          <t>8-42.50</t>
         </is>
       </c>
       <c r="B783">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>731</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>731</t>
         </is>
       </c>
       <c r="E783" t="inlineStr">
@@ -26770,32 +26770,32 @@
       </c>
       <c r="G783" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>731</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>8-43.30</t>
+          <t>8-42.90</t>
         </is>
       </c>
       <c r="B784">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>731</t>
         </is>
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>731</t>
         </is>
       </c>
       <c r="E784" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F784" t="inlineStr">
@@ -26805,18 +26805,18 @@
       </c>
       <c r="G784" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>731</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>8-43.40</t>
+          <t>8-43.20</t>
         </is>
       </c>
       <c r="B785">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="C785" t="inlineStr">
         <is>
@@ -26847,11 +26847,11 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>8-43.90</t>
+          <t>8-43.30</t>
         </is>
       </c>
       <c r="B786">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C786" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F786" t="inlineStr">
@@ -26882,11 +26882,11 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>8-44.10</t>
+          <t>8-43.40</t>
         </is>
       </c>
       <c r="B787">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="C787" t="inlineStr">
         <is>
@@ -26917,11 +26917,11 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>8-44.20</t>
+          <t>8-43.90</t>
         </is>
       </c>
       <c r="B788">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C788" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F788" t="inlineStr">
@@ -26952,11 +26952,16 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>8-44.90</t>
+          <t>8-44.10</t>
         </is>
       </c>
       <c r="B789">
-        <v>4</v>
+        <v>66</v>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -26970,7 +26975,7 @@
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G789" t="inlineStr">
@@ -26982,11 +26987,11 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>8-49.10</t>
+          <t>8-44.20</t>
         </is>
       </c>
       <c r="B790">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C790" t="inlineStr">
         <is>
@@ -27000,7 +27005,7 @@
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F790" t="inlineStr">
@@ -27017,22 +27022,17 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>8-49.15</t>
+          <t>8-44.90</t>
         </is>
       </c>
       <c r="B791">
-        <v>5</v>
-      </c>
-      <c r="C791" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="D791" t="inlineStr">
         <is>
           <t>723</t>
         </is>
       </c>
-      <c r="D791" t="inlineStr">
-        <is>
-          <t>723</t>
-        </is>
-      </c>
       <c r="E791" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -27040,7 +27040,7 @@
       </c>
       <c r="F791" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G791" t="inlineStr">
@@ -27052,11 +27052,11 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>8-49.20</t>
+          <t>8-49.10</t>
         </is>
       </c>
       <c r="B792">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C792" t="inlineStr">
         <is>
@@ -27087,11 +27087,11 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>8-49.30</t>
+          <t>8-49.15</t>
         </is>
       </c>
       <c r="B793">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C793" t="inlineStr">
         <is>
@@ -27100,17 +27100,17 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>723</t>
         </is>
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G793" t="inlineStr">
@@ -27122,11 +27122,11 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>8-49.35</t>
+          <t>8-49.20</t>
         </is>
       </c>
       <c r="B794">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C794" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F794" t="inlineStr">
@@ -27157,11 +27157,11 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>8-49.40</t>
+          <t>8-49.30</t>
         </is>
       </c>
       <c r="B795">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C795" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>828</t>
         </is>
       </c>
       <c r="E795" t="inlineStr">
@@ -27180,7 +27180,7 @@
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G795" t="inlineStr">
@@ -27192,11 +27192,11 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>8-49.45</t>
+          <t>8-49.35</t>
         </is>
       </c>
       <c r="B796">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C796" t="inlineStr">
         <is>
@@ -27227,11 +27227,11 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>8-49.55</t>
+          <t>8-49.40</t>
         </is>
       </c>
       <c r="B797">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C797" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F797" t="inlineStr">
@@ -27262,11 +27262,11 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>8-49.60</t>
+          <t>8-49.45</t>
         </is>
       </c>
       <c r="B798">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C798" t="inlineStr">
         <is>
@@ -27297,11 +27297,16 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>8-49.65</t>
+          <t>8-49.55</t>
         </is>
       </c>
       <c r="B799">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -27315,7 +27320,7 @@
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G799" t="inlineStr">
@@ -27327,11 +27332,11 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>8-49.70</t>
+          <t>8-49.60</t>
         </is>
       </c>
       <c r="B800">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="C800" t="inlineStr">
         <is>
@@ -27362,22 +27367,17 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>8-49.75</t>
+          <t>8-49.65</t>
         </is>
       </c>
       <c r="B801">
-        <v>13</v>
-      </c>
-      <c r="C801" t="inlineStr">
+        <v>14</v>
+      </c>
+      <c r="D801" t="inlineStr">
         <is>
           <t>723</t>
         </is>
       </c>
-      <c r="D801" t="inlineStr">
-        <is>
-          <t>723</t>
-        </is>
-      </c>
       <c r="E801" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -27385,7 +27385,7 @@
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G801" t="inlineStr">
@@ -27397,11 +27397,11 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>8-49.80</t>
+          <t>8-49.70</t>
         </is>
       </c>
       <c r="B802">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="C802" t="inlineStr">
         <is>
@@ -27432,15 +27432,15 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>8-49.85</t>
+          <t>8-49.75</t>
         </is>
       </c>
       <c r="B803">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>723</t>
         </is>
       </c>
       <c r="D803" t="inlineStr">
@@ -27455,23 +27455,28 @@
       </c>
       <c r="F803" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G803" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>723</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>8-49.90</t>
+          <t>8-49.80</t>
         </is>
       </c>
       <c r="B804">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -27480,12 +27485,12 @@
       </c>
       <c r="E804" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G804" t="inlineStr">
@@ -27497,20 +27502,20 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>8-51.10</t>
+          <t>8-49.85</t>
         </is>
       </c>
       <c r="B805">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D805" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>723</t>
         </is>
       </c>
       <c r="E805" t="inlineStr">
@@ -27520,58 +27525,53 @@
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G805" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>315</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>8-51.20</t>
+          <t>8-49.90</t>
         </is>
       </c>
       <c r="B806">
-        <v>19</v>
-      </c>
-      <c r="C806" t="inlineStr">
-        <is>
-          <t>724</t>
-        </is>
+        <v>51</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>723</t>
         </is>
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G806" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>723</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>8-51.30</t>
+          <t>8-51.10</t>
         </is>
       </c>
       <c r="B807">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C807" t="inlineStr">
         <is>
@@ -27602,11 +27602,11 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>8-51.40</t>
+          <t>8-51.20</t>
         </is>
       </c>
       <c r="B808">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C808" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>8-51.50</t>
+          <t>8-51.30</t>
         </is>
       </c>
       <c r="B809">
@@ -27672,7 +27672,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>8-51.60</t>
+          <t>8-51.40</t>
         </is>
       </c>
       <c r="B810">
@@ -27707,11 +27707,16 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>8-51.90</t>
+          <t>8-51.50</t>
         </is>
       </c>
       <c r="B811">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -27725,7 +27730,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G811" t="inlineStr">
@@ -27737,11 +27742,11 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>8-52.10</t>
+          <t>8-51.60</t>
         </is>
       </c>
       <c r="B812">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C812" t="inlineStr">
         <is>
@@ -27772,22 +27777,17 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>8-52.20</t>
+          <t>8-51.90</t>
         </is>
       </c>
       <c r="B813">
-        <v>4</v>
-      </c>
-      <c r="C813" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="D813" t="inlineStr">
         <is>
           <t>724</t>
         </is>
       </c>
-      <c r="D813" t="inlineStr">
-        <is>
-          <t>724</t>
-        </is>
-      </c>
       <c r="E813" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G813" t="inlineStr">
@@ -27807,11 +27807,11 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>8-52.40</t>
+          <t>8-52.10</t>
         </is>
       </c>
       <c r="B814">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C814" t="inlineStr">
         <is>
@@ -27842,11 +27842,11 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>8-52.60</t>
+          <t>8-52.20</t>
         </is>
       </c>
       <c r="B815">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C815" t="inlineStr">
         <is>
@@ -27877,11 +27877,11 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>8-52.90</t>
+          <t>8-52.40</t>
         </is>
       </c>
       <c r="B816">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C816" t="inlineStr">
         <is>
@@ -27912,20 +27912,20 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>8-53.20</t>
+          <t>8-52.60</t>
         </is>
       </c>
       <c r="B817">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>724</t>
         </is>
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>724</t>
         </is>
       </c>
       <c r="E817" t="inlineStr">
@@ -27940,22 +27940,27 @@
       </c>
       <c r="G817" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>724</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>8-53.30</t>
+          <t>8-52.90</t>
         </is>
       </c>
       <c r="B818">
-        <v>45</v>
+        <v>2</v>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>724</t>
         </is>
       </c>
       <c r="E818" t="inlineStr">
@@ -27965,23 +27970,23 @@
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G818" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>724</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>8-53.40</t>
+          <t>8-53.20</t>
         </is>
       </c>
       <c r="B819">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C819" t="inlineStr">
         <is>
@@ -28012,16 +28017,11 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>8-53.50</t>
+          <t>8-53.30</t>
         </is>
       </c>
       <c r="B820">
-        <v>3</v>
-      </c>
-      <c r="C820" t="inlineStr">
-        <is>
-          <t>932</t>
-        </is>
+        <v>45</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -28035,23 +28035,28 @@
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G820" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>828</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>8-53.90</t>
+          <t>8-53.40</t>
         </is>
       </c>
       <c r="B821">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -28065,7 +28070,7 @@
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G821" t="inlineStr">
@@ -28077,20 +28082,20 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>8-54.20</t>
+          <t>8-53.50</t>
         </is>
       </c>
       <c r="B822">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>932</t>
         </is>
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>828</t>
         </is>
       </c>
       <c r="E822" t="inlineStr">
@@ -28100,67 +28105,62 @@
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G822" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>932</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>8-55.10</t>
+          <t>8-53.90</t>
         </is>
       </c>
       <c r="B823">
-        <v>18</v>
-      </c>
-      <c r="C823" t="inlineStr">
-        <is>
-          <t>713</t>
-        </is>
+        <v>16</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>828</t>
         </is>
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G823" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>828</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>8-55.20</t>
+          <t>8-54.20</t>
         </is>
       </c>
       <c r="B824">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>724</t>
         </is>
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>724</t>
         </is>
       </c>
       <c r="E824" t="inlineStr">
@@ -28175,22 +28175,22 @@
       </c>
       <c r="G824" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>724</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>8-55.30</t>
+          <t>8-55.10</t>
         </is>
       </c>
       <c r="B825">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>713</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
@@ -28200,32 +28200,32 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G825" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>713</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>8-55.35</t>
+          <t>8-55.20</t>
         </is>
       </c>
       <c r="B826">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>713</t>
         </is>
       </c>
       <c r="D826" t="inlineStr">
@@ -28240,23 +28240,23 @@
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G826" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>713</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>8-55.40</t>
+          <t>8-55.30</t>
         </is>
       </c>
       <c r="B827">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C827" t="inlineStr">
         <is>
@@ -28287,22 +28287,22 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>8-55.50</t>
+          <t>8-55.35</t>
         </is>
       </c>
       <c r="B828">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C828" t="inlineStr">
         <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
           <t>713</t>
         </is>
       </c>
-      <c r="D828" t="inlineStr">
-        <is>
-          <t>713</t>
-        </is>
-      </c>
       <c r="E828" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -28310,34 +28310,34 @@
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G828" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>724</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>8-55.60</t>
+          <t>8-55.40</t>
         </is>
       </c>
       <c r="B829">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C829" t="inlineStr">
         <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
           <t>713</t>
         </is>
       </c>
-      <c r="D829" t="inlineStr">
-        <is>
-          <t>713</t>
-        </is>
-      </c>
       <c r="E829" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -28345,23 +28345,28 @@
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G829" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>724</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>8-55.70</t>
+          <t>8-55.50</t>
         </is>
       </c>
       <c r="B830">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -28375,7 +28380,7 @@
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G830" t="inlineStr">
@@ -28387,11 +28392,11 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>8-55.90</t>
+          <t>8-55.60</t>
         </is>
       </c>
       <c r="B831">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C831" t="inlineStr">
         <is>
@@ -28405,7 +28410,7 @@
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F831" t="inlineStr">
@@ -28422,20 +28427,15 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>8-56.20</t>
+          <t>8-55.70</t>
         </is>
       </c>
       <c r="B832">
         <v>14</v>
       </c>
-      <c r="C832" t="inlineStr">
-        <is>
-          <t>724</t>
-        </is>
-      </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>713</t>
         </is>
       </c>
       <c r="E832" t="inlineStr">
@@ -28445,37 +28445,37 @@
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G832" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>713</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>8-56.30</t>
+          <t>8-55.90</t>
         </is>
       </c>
       <c r="B833">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>713</t>
         </is>
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>713</t>
         </is>
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F833" t="inlineStr">
@@ -28485,18 +28485,23 @@
       </c>
       <c r="G833" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>713</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>8-56.90</t>
+          <t>8-56.20</t>
         </is>
       </c>
       <c r="B834">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -28510,7 +28515,7 @@
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G834" t="inlineStr">
@@ -28522,11 +28527,11 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>8-57.20</t>
+          <t>8-56.30</t>
         </is>
       </c>
       <c r="B835">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C835" t="inlineStr">
         <is>
@@ -28557,22 +28562,17 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>8-57.40</t>
+          <t>8-56.90</t>
         </is>
       </c>
       <c r="B836">
-        <v>13</v>
-      </c>
-      <c r="C836" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D836" t="inlineStr">
         <is>
           <t>724</t>
         </is>
       </c>
-      <c r="D836" t="inlineStr">
-        <is>
-          <t>724</t>
-        </is>
-      </c>
       <c r="E836" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -28580,7 +28580,7 @@
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G836" t="inlineStr">
@@ -28592,11 +28592,11 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>8-57.50</t>
+          <t>8-57.20</t>
         </is>
       </c>
       <c r="B837">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C837" t="inlineStr">
         <is>
@@ -28627,11 +28627,11 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>8-57.90</t>
+          <t>8-57.40</t>
         </is>
       </c>
       <c r="B838">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C838" t="inlineStr">
         <is>
@@ -28662,15 +28662,15 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>8-59.20</t>
+          <t>8-57.50</t>
         </is>
       </c>
       <c r="B839">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>724</t>
         </is>
       </c>
       <c r="D839" t="inlineStr">
@@ -28685,23 +28685,28 @@
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G839" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>724</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>8-59.90</t>
+          <t>8-57.90</t>
         </is>
       </c>
       <c r="B840">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -28715,7 +28720,7 @@
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G840" t="inlineStr">
@@ -28727,20 +28732,20 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>8-61.20</t>
+          <t>8-59.20</t>
         </is>
       </c>
       <c r="B841">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>724</t>
         </is>
       </c>
       <c r="E841" t="inlineStr">
@@ -28750,32 +28755,27 @@
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G841" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>8-61.30</t>
+          <t>8-59.90</t>
         </is>
       </c>
       <c r="B842">
         <v>2</v>
       </c>
-      <c r="C842" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>724</t>
         </is>
       </c>
       <c r="E842" t="inlineStr">
@@ -28785,19 +28785,19 @@
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G842" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>724</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>8-61.90</t>
+          <t>8-61.20</t>
         </is>
       </c>
       <c r="B843">
@@ -28832,11 +28832,11 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>8-62.20</t>
+          <t>8-61.30</t>
         </is>
       </c>
       <c r="B844">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C844" t="inlineStr">
         <is>
@@ -28867,11 +28867,11 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>8-62.40</t>
+          <t>8-61.90</t>
         </is>
       </c>
       <c r="B845">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C845" t="inlineStr">
         <is>
@@ -28902,11 +28902,11 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>8-62.90</t>
+          <t>8-62.20</t>
         </is>
       </c>
       <c r="B846">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C846" t="inlineStr">
         <is>
@@ -28937,20 +28937,20 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>8-71.05</t>
+          <t>8-62.40</t>
         </is>
       </c>
       <c r="B847">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>313</t>
         </is>
       </c>
       <c r="E847" t="inlineStr">
@@ -28965,32 +28965,32 @@
       </c>
       <c r="G847" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>313</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>8-71.10</t>
+          <t>8-62.90</t>
         </is>
       </c>
       <c r="B848">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>313</t>
         </is>
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F848" t="inlineStr">
@@ -29000,18 +29000,18 @@
       </c>
       <c r="G848" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>313</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>8-71.20</t>
+          <t>8-71.05</t>
         </is>
       </c>
       <c r="B849">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C849" t="inlineStr">
         <is>
@@ -29042,11 +29042,11 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>8-71.40</t>
+          <t>8-71.10</t>
         </is>
       </c>
       <c r="B850">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="C850" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F850" t="inlineStr">
@@ -29077,11 +29077,11 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>8-71.90</t>
+          <t>8-71.20</t>
         </is>
       </c>
       <c r="B851">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C851" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F851" t="inlineStr">
@@ -29112,20 +29112,20 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>8-72.10</t>
+          <t>8-71.40</t>
         </is>
       </c>
       <c r="B852">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>713</t>
         </is>
       </c>
       <c r="D852" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>713</t>
         </is>
       </c>
       <c r="E852" t="inlineStr">
@@ -29140,32 +29140,32 @@
       </c>
       <c r="G852" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>713</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>8-72.15</t>
+          <t>8-71.90</t>
         </is>
       </c>
       <c r="B853">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>713</t>
         </is>
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>713</t>
         </is>
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F853" t="inlineStr">
@@ -29175,18 +29175,18 @@
       </c>
       <c r="G853" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>713</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>8-72.20</t>
+          <t>8-72.10</t>
         </is>
       </c>
       <c r="B854">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C854" t="inlineStr">
         <is>
@@ -29217,15 +29217,15 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>8-72.25</t>
+          <t>8-72.15</t>
         </is>
       </c>
       <c r="B855">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>721</t>
         </is>
       </c>
       <c r="D855" t="inlineStr">
@@ -29240,23 +29240,23 @@
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G855" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>721</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>8-72.35</t>
+          <t>8-72.20</t>
         </is>
       </c>
       <c r="B856">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C856" t="inlineStr">
         <is>
@@ -29287,22 +29287,22 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>8-72.45</t>
+          <t>8-72.25</t>
         </is>
       </c>
       <c r="B857">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C857" t="inlineStr">
         <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
           <t>721</t>
         </is>
       </c>
-      <c r="D857" t="inlineStr">
-        <is>
-          <t>721</t>
-        </is>
-      </c>
       <c r="E857" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -29310,23 +29310,23 @@
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>821</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>8-72.50</t>
+          <t>8-72.35</t>
         </is>
       </c>
       <c r="B858">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C858" t="inlineStr">
         <is>
@@ -29357,11 +29357,11 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>8-72.60</t>
+          <t>8-72.45</t>
         </is>
       </c>
       <c r="B859">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C859" t="inlineStr">
         <is>
@@ -29392,11 +29392,11 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>8-72.90</t>
+          <t>8-72.50</t>
         </is>
       </c>
       <c r="B860">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C860" t="inlineStr">
         <is>
@@ -29427,11 +29427,11 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>8-73.10</t>
+          <t>8-72.60</t>
         </is>
       </c>
       <c r="B861">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="C861" t="inlineStr">
         <is>
@@ -29445,7 +29445,7 @@
       </c>
       <c r="E861" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F861" t="inlineStr">
@@ -29462,11 +29462,11 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>8-73.20</t>
+          <t>8-72.90</t>
         </is>
       </c>
       <c r="B862">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C862" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F862" t="inlineStr">
@@ -29497,11 +29497,11 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>8-73.40</t>
+          <t>8-73.10</t>
         </is>
       </c>
       <c r="B863">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="C863" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
       </c>
       <c r="E863" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F863" t="inlineStr">
@@ -29532,11 +29532,16 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>8-73.50</t>
+          <t>8-73.20</t>
         </is>
       </c>
       <c r="B864">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -29545,12 +29550,12 @@
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G864" t="inlineStr">
@@ -29562,11 +29567,11 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>8-73.60</t>
+          <t>8-73.40</t>
         </is>
       </c>
       <c r="B865">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C865" t="inlineStr">
         <is>
@@ -29597,22 +29602,17 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>8-73.70</t>
+          <t>8-73.50</t>
         </is>
       </c>
       <c r="B866">
-        <v>56</v>
-      </c>
-      <c r="C866" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="D866" t="inlineStr">
         <is>
           <t>721</t>
         </is>
       </c>
-      <c r="D866" t="inlineStr">
-        <is>
-          <t>721</t>
-        </is>
-      </c>
       <c r="E866" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -29620,7 +29620,7 @@
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G866" t="inlineStr">
@@ -29632,12 +29632,17 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>8-73.80</t>
+          <t>8-73.60</t>
         </is>
       </c>
       <c r="B867">
         <v>4</v>
       </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
       <c r="D867" t="inlineStr">
         <is>
           <t>721</t>
@@ -29650,7 +29655,7 @@
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G867" t="inlineStr">
@@ -29662,11 +29667,16 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>8-73.90</t>
+          <t>8-73.70</t>
         </is>
       </c>
       <c r="B868">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -29675,12 +29685,12 @@
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G868" t="inlineStr">
@@ -29692,22 +29702,17 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>8-74.30</t>
+          <t>8-73.80</t>
         </is>
       </c>
       <c r="B869">
-        <v>7</v>
-      </c>
-      <c r="C869" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="D869" t="inlineStr">
         <is>
           <t>721</t>
         </is>
       </c>
-      <c r="D869" t="inlineStr">
-        <is>
-          <t>721</t>
-        </is>
-      </c>
       <c r="E869" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -29715,7 +29720,7 @@
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G869" t="inlineStr">
@@ -29727,30 +29732,25 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>8-74.40</t>
+          <t>8-73.90</t>
         </is>
       </c>
       <c r="B870">
-        <v>43</v>
-      </c>
-      <c r="C870" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="D870" t="inlineStr">
         <is>
           <t>721</t>
         </is>
       </c>
-      <c r="D870" t="inlineStr">
-        <is>
-          <t>721</t>
-        </is>
-      </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
@@ -29762,11 +29762,11 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>8-74.50</t>
+          <t>8-74.30</t>
         </is>
       </c>
       <c r="B871">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C871" t="inlineStr">
         <is>
@@ -29797,11 +29797,11 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>8-74.60</t>
+          <t>8-74.40</t>
         </is>
       </c>
       <c r="B872">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C872" t="inlineStr">
         <is>
@@ -29832,15 +29832,15 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>8-74.65</t>
+          <t>8-74.50</t>
         </is>
       </c>
       <c r="B873">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>721</t>
         </is>
       </c>
       <c r="D873" t="inlineStr">
@@ -29855,23 +29855,23 @@
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G873" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>721</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>8-74.70</t>
+          <t>8-74.60</t>
         </is>
       </c>
       <c r="B874">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C874" t="inlineStr">
         <is>
@@ -29902,11 +29902,16 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>8-74.90</t>
+          <t>8-74.65</t>
         </is>
       </c>
       <c r="B875">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -29920,57 +29925,62 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G875" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>821</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>8-80.10</t>
+          <t>8-74.70</t>
         </is>
       </c>
       <c r="B876">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>721</t>
         </is>
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G876" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>721</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>8-80.30</t>
+          <t>8-74.90</t>
         </is>
       </c>
       <c r="B877">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>721</t>
         </is>
       </c>
       <c r="E877" t="inlineStr">
@@ -29985,37 +29995,32 @@
       </c>
       <c r="G877" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>721</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>8-80.40</t>
+          <t>8-80.10</t>
         </is>
       </c>
       <c r="B878">
-        <v>4</v>
-      </c>
-      <c r="C878" t="inlineStr">
+        <v>31</v>
+      </c>
+      <c r="D878" t="inlineStr">
         <is>
           <t>731</t>
         </is>
       </c>
-      <c r="D878" t="inlineStr">
-        <is>
-          <t>731</t>
-        </is>
-      </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G878" t="inlineStr">
@@ -30027,22 +30032,17 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>8-80.80</t>
+          <t>8-80.30</t>
         </is>
       </c>
       <c r="B879">
-        <v>3</v>
-      </c>
-      <c r="C879" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D879" t="inlineStr">
         <is>
           <t>731</t>
         </is>
       </c>
-      <c r="D879" t="inlineStr">
-        <is>
-          <t>731</t>
-        </is>
-      </c>
       <c r="E879" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -30050,7 +30050,7 @@
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G879" t="inlineStr">
@@ -30062,11 +30062,11 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>8-80.90</t>
+          <t>8-80.40</t>
         </is>
       </c>
       <c r="B880">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C880" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F880" t="inlineStr">
@@ -30097,7 +30097,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>8-91.28</t>
+          <t>8-80.80</t>
         </is>
       </c>
       <c r="B881">
@@ -30105,12 +30105,12 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>731</t>
         </is>
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>731</t>
         </is>
       </c>
       <c r="E881" t="inlineStr">
@@ -30120,54 +30120,54 @@
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G881" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>731</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>8-91.36</t>
+          <t>8-80.90</t>
         </is>
       </c>
       <c r="B882">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>731</t>
         </is>
       </c>
       <c r="D882" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>731</t>
         </is>
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G882" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>731</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>8-91.48</t>
+          <t>8-91.28</t>
         </is>
       </c>
       <c r="B883">
@@ -30202,22 +30202,22 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>8-91.56</t>
+          <t>8-91.36</t>
         </is>
       </c>
       <c r="B884">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C884" t="inlineStr">
         <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
           <t>732</t>
         </is>
       </c>
-      <c r="D884" t="inlineStr">
-        <is>
-          <t>732</t>
-        </is>
-      </c>
       <c r="E884" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -30225,24 +30225,29 @@
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G884" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>813</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>8-91.72</t>
+          <t>8-91.48</t>
         </is>
       </c>
       <c r="B885">
         <v>3</v>
       </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
       <c r="D885" t="inlineStr">
         <is>
           <t>732</t>
@@ -30255,23 +30260,23 @@
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G885" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>813</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>8-91.80</t>
+          <t>8-91.56</t>
         </is>
       </c>
       <c r="B886">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C886" t="inlineStr">
         <is>
@@ -30302,11 +30307,11 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>8-91.90</t>
+          <t>8-91.72</t>
         </is>
       </c>
       <c r="B887">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -30315,7 +30320,7 @@
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F887" t="inlineStr">
@@ -30332,11 +30337,11 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>8-92.40</t>
+          <t>8-91.80</t>
         </is>
       </c>
       <c r="B888">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C888" t="inlineStr">
         <is>
@@ -30367,16 +30372,11 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>8-92.50</t>
+          <t>8-91.90</t>
         </is>
       </c>
       <c r="B889">
-        <v>2</v>
-      </c>
-      <c r="C889" t="inlineStr">
-        <is>
-          <t>813</t>
-        </is>
+        <v>1</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -30385,29 +30385,34 @@
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G889" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>732</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>8-92.90</t>
+          <t>8-92.40</t>
         </is>
       </c>
       <c r="B890">
         <v>3</v>
       </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
       <c r="D890" t="inlineStr">
         <is>
           <t>732</t>
@@ -30420,7 +30425,7 @@
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G890" t="inlineStr">
@@ -30432,11 +30437,11 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>8-93.20</t>
+          <t>8-92.50</t>
         </is>
       </c>
       <c r="B891">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C891" t="inlineStr">
         <is>
@@ -30445,7 +30450,7 @@
       </c>
       <c r="D891" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>732</t>
         </is>
       </c>
       <c r="E891" t="inlineStr">
@@ -30455,7 +30460,7 @@
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G891" t="inlineStr">
@@ -30467,20 +30472,15 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>8-93.50</t>
+          <t>8-92.90</t>
         </is>
       </c>
       <c r="B892">
-        <v>1</v>
-      </c>
-      <c r="C892" t="inlineStr">
-        <is>
-          <t>813</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>732</t>
         </is>
       </c>
       <c r="E892" t="inlineStr">
@@ -30490,23 +30490,23 @@
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G892" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>732</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>8-93.60</t>
+          <t>8-93.20</t>
         </is>
       </c>
       <c r="B893">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C893" t="inlineStr">
         <is>
@@ -30537,11 +30537,16 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>8-93.90</t>
+          <t>8-93.50</t>
         </is>
       </c>
       <c r="B894">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -30555,7 +30560,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G894" t="inlineStr">
@@ -30567,15 +30572,20 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>8-94.90</t>
+          <t>8-93.60</t>
         </is>
       </c>
       <c r="B895">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>813</t>
         </is>
       </c>
       <c r="E895" t="inlineStr">
@@ -30585,32 +30595,27 @@
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G895" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>813</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>8-95.70</t>
+          <t>8-93.90</t>
         </is>
       </c>
       <c r="B896">
-        <v>1</v>
-      </c>
-      <c r="C896" t="inlineStr">
-        <is>
-          <t>732</t>
-        </is>
+        <v>6</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>813</t>
         </is>
       </c>
       <c r="E896" t="inlineStr">
@@ -30620,32 +30625,27 @@
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G896" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>813</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>8-99.90</t>
+          <t>8-94.90</t>
         </is>
       </c>
       <c r="B897">
         <v>2</v>
       </c>
-      <c r="C897" t="inlineStr">
-        <is>
-          <t>813</t>
-        </is>
-      </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>732</t>
         </is>
       </c>
       <c r="E897" t="inlineStr">
@@ -30655,32 +30655,32 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G897" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>732</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>9-01.20</t>
+          <t>8-95.70</t>
         </is>
       </c>
       <c r="B898">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>732</t>
         </is>
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>732</t>
         </is>
       </c>
       <c r="E898" t="inlineStr">
@@ -30695,27 +30695,27 @@
       </c>
       <c r="G898" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>732</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>9-01.35</t>
+          <t>8-99.90</t>
         </is>
       </c>
       <c r="B899">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>813</t>
         </is>
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>813</t>
         </is>
       </c>
       <c r="E899" t="inlineStr">
@@ -30730,22 +30730,22 @@
       </c>
       <c r="G899" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>813</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>9-01.40</t>
+          <t>9-01.20</t>
         </is>
       </c>
       <c r="B900">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>823</t>
         </is>
       </c>
       <c r="D900" t="inlineStr">
@@ -30760,23 +30760,23 @@
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G900" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>823</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>9-01.50</t>
+          <t>9-01.35</t>
         </is>
       </c>
       <c r="B901">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C901" t="inlineStr">
         <is>
@@ -30807,22 +30807,22 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>9-01.55</t>
+          <t>9-01.40</t>
         </is>
       </c>
       <c r="B902">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C902" t="inlineStr">
         <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
           <t>823</t>
         </is>
       </c>
-      <c r="D902" t="inlineStr">
-        <is>
-          <t>823</t>
-        </is>
-      </c>
       <c r="E902" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -30830,23 +30830,23 @@
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G902" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>828</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>9-01.60</t>
+          <t>9-01.50</t>
         </is>
       </c>
       <c r="B903">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C903" t="inlineStr">
         <is>
@@ -30877,11 +30877,11 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>9-01.65</t>
+          <t>9-01.55</t>
         </is>
       </c>
       <c r="B904">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C904" t="inlineStr">
         <is>
@@ -30912,15 +30912,15 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>9-01.70</t>
+          <t>9-01.60</t>
         </is>
       </c>
       <c r="B905">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>823</t>
         </is>
       </c>
       <c r="D905" t="inlineStr">
@@ -30935,23 +30935,23 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G905" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>823</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>9-01.80</t>
+          <t>9-01.65</t>
         </is>
       </c>
       <c r="B906">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C906" t="inlineStr">
         <is>
@@ -30982,22 +30982,22 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>9-01.90</t>
+          <t>9-01.70</t>
         </is>
       </c>
       <c r="B907">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C907" t="inlineStr">
         <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
           <t>823</t>
         </is>
       </c>
-      <c r="D907" t="inlineStr">
-        <is>
-          <t>823</t>
-        </is>
-      </c>
       <c r="E907" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -31005,23 +31005,23 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G907" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>828</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>9-02.40</t>
+          <t>9-01.80</t>
         </is>
       </c>
       <c r="B908">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C908" t="inlineStr">
         <is>
@@ -31052,15 +31052,20 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>9-10.20</t>
+          <t>9-01.90</t>
         </is>
       </c>
       <c r="B909">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>823</t>
+        </is>
       </c>
       <c r="D909" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>823</t>
         </is>
       </c>
       <c r="E909" t="inlineStr">
@@ -31070,32 +31075,32 @@
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G909" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>823</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>9-10.30</t>
+          <t>9-02.40</t>
         </is>
       </c>
       <c r="B910">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>823</t>
         </is>
       </c>
       <c r="D910" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>823</t>
         </is>
       </c>
       <c r="E910" t="inlineStr">
@@ -31110,29 +31115,24 @@
       </c>
       <c r="G910" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>823</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>9-10.40</t>
+          <t>9-10.20</t>
         </is>
       </c>
       <c r="B911">
-        <v>4</v>
-      </c>
-      <c r="C911" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="D911" t="inlineStr">
         <is>
           <t>825</t>
         </is>
       </c>
-      <c r="D911" t="inlineStr">
-        <is>
-          <t>825</t>
-        </is>
-      </c>
       <c r="E911" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -31140,7 +31140,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G911" t="inlineStr">
@@ -31152,11 +31152,11 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>9-10.50</t>
+          <t>9-10.30</t>
         </is>
       </c>
       <c r="B912">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C912" t="inlineStr">
         <is>
@@ -31187,11 +31187,16 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>9-10.60</t>
+          <t>9-10.40</t>
         </is>
       </c>
       <c r="B913">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -31205,7 +31210,7 @@
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G913" t="inlineStr">
@@ -31217,7 +31222,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>9-10.70</t>
+          <t>9-10.50</t>
         </is>
       </c>
       <c r="B914">
@@ -31252,22 +31257,17 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>9-10.80</t>
+          <t>9-10.60</t>
         </is>
       </c>
       <c r="B915">
-        <v>4</v>
-      </c>
-      <c r="C915" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D915" t="inlineStr">
         <is>
           <t>825</t>
         </is>
       </c>
-      <c r="D915" t="inlineStr">
-        <is>
-          <t>825</t>
-        </is>
-      </c>
       <c r="E915" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -31275,7 +31275,7 @@
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G915" t="inlineStr">
@@ -31287,11 +31287,11 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>9-10.90</t>
+          <t>9-10.70</t>
         </is>
       </c>
       <c r="B916">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C916" t="inlineStr">
         <is>
@@ -31322,20 +31322,20 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>9-21.20</t>
+          <t>9-10.80</t>
         </is>
       </c>
       <c r="B917">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>825</t>
         </is>
       </c>
       <c r="D917" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>825</t>
         </is>
       </c>
       <c r="E917" t="inlineStr">
@@ -31350,27 +31350,27 @@
       </c>
       <c r="G917" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>825</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>9-21.30</t>
+          <t>9-10.90</t>
         </is>
       </c>
       <c r="B918">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>825</t>
         </is>
       </c>
       <c r="D918" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>825</t>
         </is>
       </c>
       <c r="E918" t="inlineStr">
@@ -31385,18 +31385,23 @@
       </c>
       <c r="G918" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>825</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>9-21.40</t>
+          <t>9-21.20</t>
         </is>
       </c>
       <c r="B919">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -31410,7 +31415,7 @@
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G919" t="inlineStr">
@@ -31422,7 +31427,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>9-21.45</t>
+          <t>9-21.30</t>
         </is>
       </c>
       <c r="B920">
@@ -31457,22 +31462,17 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>9-21.50</t>
+          <t>9-21.40</t>
         </is>
       </c>
       <c r="B921">
         <v>1</v>
       </c>
-      <c r="C921" t="inlineStr">
+      <c r="D921" t="inlineStr">
         <is>
           <t>734</t>
         </is>
       </c>
-      <c r="D921" t="inlineStr">
-        <is>
-          <t>734</t>
-        </is>
-      </c>
       <c r="E921" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -31480,7 +31480,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
@@ -31492,7 +31492,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>9-21.90</t>
+          <t>9-21.45</t>
         </is>
       </c>
       <c r="B922">
@@ -31510,7 +31510,7 @@
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F922" t="inlineStr">
@@ -31527,20 +31527,20 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>9-22.20</t>
+          <t>9-21.50</t>
         </is>
       </c>
       <c r="B923">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>734</t>
         </is>
       </c>
       <c r="D923" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>734</t>
         </is>
       </c>
       <c r="E923" t="inlineStr">
@@ -31555,32 +31555,32 @@
       </c>
       <c r="G923" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>734</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>9-22.25</t>
+          <t>9-21.90</t>
         </is>
       </c>
       <c r="B924">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>734</t>
         </is>
       </c>
       <c r="D924" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>734</t>
         </is>
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F924" t="inlineStr">
@@ -31590,18 +31590,18 @@
       </c>
       <c r="G924" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>734</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>9-22.30</t>
+          <t>9-22.20</t>
         </is>
       </c>
       <c r="B925">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C925" t="inlineStr">
         <is>
@@ -31632,11 +31632,11 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>9-22.40</t>
+          <t>9-22.25</t>
         </is>
       </c>
       <c r="B926">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C926" t="inlineStr">
         <is>
@@ -31667,11 +31667,16 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>9-22.90</t>
+          <t>9-22.30</t>
         </is>
       </c>
       <c r="B927">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -31685,7 +31690,7 @@
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G927" t="inlineStr">
@@ -31697,20 +31702,20 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>9-23.20</t>
+          <t>9-22.40</t>
         </is>
       </c>
       <c r="B928">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>825</t>
         </is>
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>825</t>
         </is>
       </c>
       <c r="E928" t="inlineStr">
@@ -31725,27 +31730,22 @@
       </c>
       <c r="G928" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>825</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>9-23.30</t>
+          <t>9-22.90</t>
         </is>
       </c>
       <c r="B929">
-        <v>4</v>
-      </c>
-      <c r="C929" t="inlineStr">
-        <is>
-          <t>734</t>
-        </is>
+        <v>34</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>825</t>
         </is>
       </c>
       <c r="E929" t="inlineStr">
@@ -31755,23 +31755,23 @@
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G929" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>825</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>9-25.10</t>
+          <t>9-23.20</t>
         </is>
       </c>
       <c r="B930">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C930" t="inlineStr">
         <is>
@@ -31802,7 +31802,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>9-25.20</t>
+          <t>9-23.30</t>
         </is>
       </c>
       <c r="B931">
@@ -31837,11 +31837,11 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>9-25.30</t>
+          <t>9-25.10</t>
         </is>
       </c>
       <c r="B932">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C932" t="inlineStr">
         <is>
@@ -31872,11 +31872,11 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>9-25.40</t>
+          <t>9-25.20</t>
         </is>
       </c>
       <c r="B933">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C933" t="inlineStr">
         <is>
@@ -31907,11 +31907,11 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>9-25.50</t>
+          <t>9-25.30</t>
         </is>
       </c>
       <c r="B934">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C934" t="inlineStr">
         <is>
@@ -31942,11 +31942,11 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>9-25.90</t>
+          <t>9-25.40</t>
         </is>
       </c>
       <c r="B935">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C935" t="inlineStr">
         <is>
@@ -31977,11 +31977,11 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>9-26.20</t>
+          <t>9-25.50</t>
         </is>
       </c>
       <c r="B936">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C936" t="inlineStr">
         <is>
@@ -32012,15 +32012,15 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>9-26.30</t>
+          <t>9-25.90</t>
         </is>
       </c>
       <c r="B937">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>734</t>
         </is>
       </c>
       <c r="D937" t="inlineStr">
@@ -32035,27 +32035,27 @@
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G937" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>734</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>9-26.50</t>
+          <t>9-26.20</t>
         </is>
       </c>
       <c r="B938">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>734</t>
         </is>
       </c>
       <c r="D938" t="inlineStr">
@@ -32070,34 +32070,34 @@
       </c>
       <c r="F938" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G938" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>734</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>9-26.90</t>
+          <t>9-26.30</t>
         </is>
       </c>
       <c r="B939">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C939" t="inlineStr">
         <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
           <t>734</t>
         </is>
       </c>
-      <c r="D939" t="inlineStr">
-        <is>
-          <t>734</t>
-        </is>
-      </c>
       <c r="E939" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -32105,34 +32105,34 @@
       </c>
       <c r="F939" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>825</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>9-27.20</t>
+          <t>9-26.50</t>
         </is>
       </c>
       <c r="B940">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C940" t="inlineStr">
         <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
           <t>734</t>
         </is>
       </c>
-      <c r="D940" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
       <c r="E940" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -32145,22 +32145,27 @@
       </c>
       <c r="G940" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>825</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>9-27.30</t>
+          <t>9-26.90</t>
         </is>
       </c>
       <c r="B941">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
       </c>
       <c r="D941" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>734</t>
         </is>
       </c>
       <c r="E941" t="inlineStr">
@@ -32170,23 +32175,28 @@
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>734</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>9-27.40</t>
+          <t>9-27.20</t>
         </is>
       </c>
       <c r="B942">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -32200,23 +32210,23 @@
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G942" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>734</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>9-27.90</t>
+          <t>9-27.30</t>
         </is>
       </c>
       <c r="B943">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -32242,20 +32252,15 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>9-29.20</t>
+          <t>9-27.40</t>
         </is>
       </c>
       <c r="B944">
         <v>2</v>
       </c>
-      <c r="C944" t="inlineStr">
-        <is>
-          <t>734</t>
-        </is>
-      </c>
       <c r="D944" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>822</t>
         </is>
       </c>
       <c r="E944" t="inlineStr">
@@ -32265,32 +32270,27 @@
       </c>
       <c r="F944" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G944" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>822</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>9-29.30</t>
+          <t>9-27.90</t>
         </is>
       </c>
       <c r="B945">
-        <v>14</v>
-      </c>
-      <c r="C945" t="inlineStr">
-        <is>
-          <t>734</t>
-        </is>
+        <v>7</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>822</t>
         </is>
       </c>
       <c r="E945" t="inlineStr">
@@ -32300,19 +32300,19 @@
       </c>
       <c r="F945" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G945" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>822</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>9-29.50</t>
+          <t>9-29.20</t>
         </is>
       </c>
       <c r="B946">
@@ -32347,11 +32347,11 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>9-29.90</t>
+          <t>9-29.30</t>
         </is>
       </c>
       <c r="B947">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C947" t="inlineStr">
         <is>
@@ -32382,20 +32382,20 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>9-31.20</t>
+          <t>9-29.50</t>
         </is>
       </c>
       <c r="B948">
-        <v>185</v>
+        <v>2</v>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>734</t>
         </is>
       </c>
       <c r="D948" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>734</t>
         </is>
       </c>
       <c r="E948" t="inlineStr">
@@ -32410,27 +32410,27 @@
       </c>
       <c r="G948" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>734</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>9-31.30</t>
+          <t>9-29.90</t>
         </is>
       </c>
       <c r="B949">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>734</t>
         </is>
       </c>
       <c r="D949" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>734</t>
         </is>
       </c>
       <c r="E949" t="inlineStr">
@@ -32445,22 +32445,22 @@
       </c>
       <c r="G949" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>734</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>9-39.20</t>
+          <t>9-31.20</t>
         </is>
       </c>
       <c r="B950">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>714</t>
         </is>
       </c>
       <c r="D950" t="inlineStr">
@@ -32475,27 +32475,27 @@
       </c>
       <c r="F950" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G950" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>714</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>9-39.30</t>
+          <t>9-31.30</t>
         </is>
       </c>
       <c r="B951">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>714</t>
         </is>
       </c>
       <c r="D951" t="inlineStr">
@@ -32510,23 +32510,23 @@
       </c>
       <c r="F951" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G951" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>714</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>9-39.40</t>
+          <t>9-39.20</t>
         </is>
       </c>
       <c r="B952">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C952" t="inlineStr">
         <is>
@@ -32557,11 +32557,11 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>9-39.50</t>
+          <t>9-39.30</t>
         </is>
       </c>
       <c r="B953">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C953" t="inlineStr">
         <is>
@@ -32592,22 +32592,22 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>9-39.60</t>
+          <t>9-39.40</t>
         </is>
       </c>
       <c r="B954">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C954" t="inlineStr">
         <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
           <t>714</t>
         </is>
       </c>
-      <c r="D954" t="inlineStr">
-        <is>
-          <t>714</t>
-        </is>
-      </c>
       <c r="E954" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -32615,23 +32615,28 @@
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G954" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>732</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>9-39.90</t>
+          <t>9-39.50</t>
         </is>
       </c>
       <c r="B955">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -32645,32 +32650,32 @@
       </c>
       <c r="F955" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G955" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>732</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>9-41.20</t>
+          <t>9-39.60</t>
         </is>
       </c>
       <c r="B956">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>714</t>
         </is>
       </c>
       <c r="D956" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>714</t>
         </is>
       </c>
       <c r="E956" t="inlineStr">
@@ -32685,27 +32690,22 @@
       </c>
       <c r="G956" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>714</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>9-42.30</t>
+          <t>9-39.90</t>
         </is>
       </c>
       <c r="B957">
-        <v>2</v>
-      </c>
-      <c r="C957" t="inlineStr">
-        <is>
-          <t>742</t>
-        </is>
+        <v>7</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>714</t>
         </is>
       </c>
       <c r="E957" t="inlineStr">
@@ -32715,32 +32715,32 @@
       </c>
       <c r="F957" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G957" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>714</t>
         </is>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>9-42.40</t>
+          <t>9-41.20</t>
         </is>
       </c>
       <c r="B958">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>731</t>
         </is>
       </c>
       <c r="D958" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>731</t>
         </is>
       </c>
       <c r="E958" t="inlineStr">
@@ -32755,27 +32755,27 @@
       </c>
       <c r="G958" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>731</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>9-43.20</t>
+          <t>9-42.30</t>
         </is>
       </c>
       <c r="B959">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>742</t>
         </is>
       </c>
       <c r="D959" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>742</t>
         </is>
       </c>
       <c r="E959" t="inlineStr">
@@ -32790,27 +32790,27 @@
       </c>
       <c r="G959" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>742</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>9-43.30</t>
+          <t>9-42.40</t>
         </is>
       </c>
       <c r="B960">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>742</t>
         </is>
       </c>
       <c r="D960" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>742</t>
         </is>
       </c>
       <c r="E960" t="inlineStr">
@@ -32825,18 +32825,18 @@
       </c>
       <c r="G960" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>742</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>9-43.90</t>
+          <t>9-43.20</t>
         </is>
       </c>
       <c r="B961">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C961" t="inlineStr">
         <is>
@@ -32867,55 +32867,55 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>9-49.30</t>
+          <t>9-43.30</t>
         </is>
       </c>
       <c r="B962">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>821</t>
         </is>
       </c>
       <c r="D962" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>821</t>
         </is>
       </c>
       <c r="E962" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G962" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>821</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>9-49.40</t>
+          <t>9-43.90</t>
         </is>
       </c>
       <c r="B963">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>821</t>
         </is>
       </c>
       <c r="D963" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>821</t>
         </is>
       </c>
       <c r="E963" t="inlineStr">
@@ -32925,23 +32925,28 @@
       </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G963" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>821</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>9-49.60</t>
+          <t>9-49.30</t>
         </is>
       </c>
       <c r="B964">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -32950,32 +32955,32 @@
       </c>
       <c r="E964" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F964" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G964" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>822</t>
         </is>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>9-49.70</t>
+          <t>9-49.40</t>
         </is>
       </c>
       <c r="B965">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>743</t>
         </is>
       </c>
       <c r="D965" t="inlineStr">
@@ -32995,23 +33000,18 @@
       </c>
       <c r="G965" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>743</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>9-49.80</t>
+          <t>9-49.60</t>
         </is>
       </c>
       <c r="B966">
-        <v>131</v>
-      </c>
-      <c r="C966" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
+        <v>4</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -33025,62 +33025,67 @@
       </c>
       <c r="F966" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G966" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>733</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>9-49.90</t>
+          <t>9-49.70</t>
         </is>
       </c>
       <c r="B967">
-        <v>112</v>
+        <v>2</v>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
       </c>
       <c r="D967" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>733</t>
         </is>
       </c>
       <c r="E967" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F967" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G967" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>822</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>9-51.20</t>
+          <t>9-49.80</t>
         </is>
       </c>
       <c r="B968">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D968" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>733</t>
         </is>
       </c>
       <c r="E968" t="inlineStr">
@@ -33090,58 +33095,53 @@
       </c>
       <c r="F968" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G968" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>315</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>9-51.25</t>
+          <t>9-49.90</t>
         </is>
       </c>
       <c r="B969">
-        <v>2</v>
-      </c>
-      <c r="C969" t="inlineStr">
-        <is>
-          <t>712</t>
-        </is>
+        <v>112</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>840</t>
         </is>
       </c>
       <c r="E969" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F969" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G969" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>840</t>
         </is>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>9-51.30</t>
+          <t>9-51.20</t>
         </is>
       </c>
       <c r="B970">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C970" t="inlineStr">
         <is>
@@ -33172,11 +33172,11 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>9-51.40</t>
+          <t>9-51.25</t>
         </is>
       </c>
       <c r="B971">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C971" t="inlineStr">
         <is>
@@ -33207,15 +33207,15 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>9-51.50</t>
+          <t>9-51.30</t>
         </is>
       </c>
       <c r="B972">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>712</t>
         </is>
       </c>
       <c r="D972" t="inlineStr">
@@ -33230,23 +33230,28 @@
       </c>
       <c r="F972" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G972" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>712</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>9-51.55</t>
+          <t>9-51.40</t>
         </is>
       </c>
       <c r="B973">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -33260,7 +33265,7 @@
       </c>
       <c r="F973" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G973" t="inlineStr">
@@ -33272,22 +33277,22 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>9-52.20</t>
+          <t>9-51.50</t>
         </is>
       </c>
       <c r="B974">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C974" t="inlineStr">
         <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
           <t>712</t>
         </is>
       </c>
-      <c r="D974" t="inlineStr">
-        <is>
-          <t>712</t>
-        </is>
-      </c>
       <c r="E974" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -33295,34 +33300,29 @@
       </c>
       <c r="F974" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G974" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>713</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>9-52.30</t>
+          <t>9-51.55</t>
         </is>
       </c>
       <c r="B975">
-        <v>2</v>
-      </c>
-      <c r="C975" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D975" t="inlineStr">
         <is>
           <t>712</t>
         </is>
       </c>
-      <c r="D975" t="inlineStr">
-        <is>
-          <t>712</t>
-        </is>
-      </c>
       <c r="E975" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -33330,7 +33330,7 @@
       </c>
       <c r="F975" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G975" t="inlineStr">
@@ -33342,11 +33342,16 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>9-52.40</t>
+          <t>9-52.20</t>
         </is>
       </c>
       <c r="B976">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -33360,7 +33365,7 @@
       </c>
       <c r="F976" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G976" t="inlineStr">
@@ -33372,11 +33377,11 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>9-52.50</t>
+          <t>9-52.30</t>
         </is>
       </c>
       <c r="B977">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C977" t="inlineStr">
         <is>
@@ -33407,11 +33412,11 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>9-52.90</t>
+          <t>9-52.40</t>
         </is>
       </c>
       <c r="B978">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -33437,20 +33442,20 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>9-53.40</t>
+          <t>9-52.50</t>
         </is>
       </c>
       <c r="B979">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>712</t>
         </is>
       </c>
       <c r="D979" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>712</t>
         </is>
       </c>
       <c r="E979" t="inlineStr">
@@ -33465,27 +33470,22 @@
       </c>
       <c r="G979" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>712</t>
         </is>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>9-53.50</t>
+          <t>9-52.90</t>
         </is>
       </c>
       <c r="B980">
-        <v>3</v>
-      </c>
-      <c r="C980" t="inlineStr">
-        <is>
-          <t>713</t>
-        </is>
+        <v>4</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>712</t>
         </is>
       </c>
       <c r="E980" t="inlineStr">
@@ -33495,23 +33495,23 @@
       </c>
       <c r="F980" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G980" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>712</t>
         </is>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>9-53.90</t>
+          <t>9-53.40</t>
         </is>
       </c>
       <c r="B981">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C981" t="inlineStr">
         <is>
@@ -33542,25 +33542,25 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>9-54.10</t>
+          <t>9-53.50</t>
         </is>
       </c>
       <c r="B982">
-        <v>218</v>
+        <v>3</v>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>713</t>
         </is>
       </c>
       <c r="D982" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>713</t>
         </is>
       </c>
       <c r="E982" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F982" t="inlineStr">
@@ -33570,27 +33570,27 @@
       </c>
       <c r="G982" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>713</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>9-54.15</t>
+          <t>9-53.90</t>
         </is>
       </c>
       <c r="B983">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>713</t>
         </is>
       </c>
       <c r="D983" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>713</t>
         </is>
       </c>
       <c r="E983" t="inlineStr">
@@ -33605,18 +33605,18 @@
       </c>
       <c r="G983" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>713</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>9-54.20</t>
+          <t>9-54.10</t>
         </is>
       </c>
       <c r="B984">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c r="C984" t="inlineStr">
         <is>
@@ -33647,11 +33647,11 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>9-54.30</t>
+          <t>9-54.15</t>
         </is>
       </c>
       <c r="B985">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="C985" t="inlineStr">
         <is>
@@ -33682,11 +33682,11 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>9-54.40</t>
+          <t>9-54.20</t>
         </is>
       </c>
       <c r="B986">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C986" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
       </c>
       <c r="E986" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F986" t="inlineStr">
@@ -33717,11 +33717,11 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>9-54.45</t>
+          <t>9-54.30</t>
         </is>
       </c>
       <c r="B987">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C987" t="inlineStr">
         <is>
@@ -33752,11 +33752,11 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>9-54.50</t>
+          <t>9-54.40</t>
         </is>
       </c>
       <c r="B988">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C988" t="inlineStr">
         <is>
@@ -33787,11 +33787,11 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>9-54.55</t>
+          <t>9-54.45</t>
         </is>
       </c>
       <c r="B989">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C989" t="inlineStr">
         <is>
@@ -33822,11 +33822,11 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>9-54.70</t>
+          <t>9-54.50</t>
         </is>
       </c>
       <c r="B990">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C990" t="inlineStr">
         <is>
@@ -33857,15 +33857,15 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>9-54.75</t>
+          <t>9-54.55</t>
         </is>
       </c>
       <c r="B991">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>712</t>
         </is>
       </c>
       <c r="D991" t="inlineStr">
@@ -33880,23 +33880,28 @@
       </c>
       <c r="F991" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G991" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>712</t>
         </is>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>9-54.90</t>
+          <t>9-54.70</t>
         </is>
       </c>
       <c r="B992">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -33905,12 +33910,12 @@
       </c>
       <c r="E992" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F992" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G992" t="inlineStr">
@@ -33922,11 +33927,11 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>9-55.10</t>
+          <t>9-54.75</t>
         </is>
       </c>
       <c r="B993">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C993" t="inlineStr">
         <is>
@@ -33935,17 +33940,17 @@
       </c>
       <c r="D993" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>712</t>
         </is>
       </c>
       <c r="E993" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F993" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G993" t="inlineStr">
@@ -33957,46 +33962,41 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>9-55.40</t>
+          <t>9-54.90</t>
         </is>
       </c>
       <c r="B994">
-        <v>1</v>
-      </c>
-      <c r="C994" t="inlineStr">
-        <is>
-          <t>713</t>
-        </is>
+        <v>12</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>712</t>
         </is>
       </c>
       <c r="E994" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F994" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G994" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>712</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>9-56.20</t>
+          <t>9-55.10</t>
         </is>
       </c>
       <c r="B995">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C995" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
       </c>
       <c r="E995" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F995" t="inlineStr">
@@ -34027,15 +34027,15 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>9-56.30</t>
+          <t>9-55.40</t>
         </is>
       </c>
       <c r="B996">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>713</t>
         </is>
       </c>
       <c r="D996" t="inlineStr">
@@ -34050,23 +34050,23 @@
       </c>
       <c r="F996" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G996" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>713</t>
         </is>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>9-56.40</t>
+          <t>9-56.20</t>
         </is>
       </c>
       <c r="B997">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C997" t="inlineStr">
         <is>
@@ -34097,22 +34097,22 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>9-56.50</t>
+          <t>9-56.30</t>
         </is>
       </c>
       <c r="B998">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C998" t="inlineStr">
         <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr">
+        <is>
           <t>713</t>
         </is>
       </c>
-      <c r="D998" t="inlineStr">
-        <is>
-          <t>713</t>
-        </is>
-      </c>
       <c r="E998" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -34120,19 +34120,19 @@
       </c>
       <c r="F998" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G998" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>829</t>
         </is>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>9-56.60</t>
+          <t>9-56.40</t>
         </is>
       </c>
       <c r="B999">
@@ -34167,11 +34167,11 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>9-57.20</t>
+          <t>9-56.50</t>
         </is>
       </c>
       <c r="B1000">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1000" t="inlineStr">
         <is>
@@ -34202,11 +34202,11 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>9-57.40</t>
+          <t>9-56.60</t>
         </is>
       </c>
       <c r="B1001">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1001" t="inlineStr">
         <is>
@@ -34237,11 +34237,11 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>9-57.60</t>
+          <t>9-57.20</t>
         </is>
       </c>
       <c r="B1002">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C1002" t="inlineStr">
         <is>
@@ -34272,12 +34272,17 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>9-57.90</t>
+          <t>9-57.40</t>
         </is>
       </c>
       <c r="B1003">
         <v>1</v>
       </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
       <c r="D1003" t="inlineStr">
         <is>
           <t>713</t>
@@ -34290,7 +34295,7 @@
       </c>
       <c r="F1003" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G1003" t="inlineStr">
@@ -34302,25 +34307,25 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>9-59.10</t>
+          <t>9-57.60</t>
         </is>
       </c>
       <c r="B1004">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C1004" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>713</t>
         </is>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>713</t>
         </is>
       </c>
       <c r="E1004" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F1004" t="inlineStr">
@@ -34330,27 +34335,27 @@
       </c>
       <c r="G1004" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>713</t>
         </is>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>9-59.20</t>
+          <t>9-57.90</t>
         </is>
       </c>
       <c r="B1005">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>713</t>
         </is>
       </c>
       <c r="E1005" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F1005" t="inlineStr">
@@ -34360,18 +34365,18 @@
       </c>
       <c r="G1005" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>713</t>
         </is>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>9-59.30</t>
+          <t>9-59.10</t>
         </is>
       </c>
       <c r="B1006">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C1006" t="inlineStr">
         <is>
@@ -34402,22 +34407,17 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>9-59.40</t>
+          <t>9-59.20</t>
         </is>
       </c>
       <c r="B1007">
-        <v>1</v>
-      </c>
-      <c r="C1007" t="inlineStr">
+        <v>57</v>
+      </c>
+      <c r="D1007" t="inlineStr">
         <is>
           <t>712</t>
         </is>
       </c>
-      <c r="D1007" t="inlineStr">
-        <is>
-          <t>712</t>
-        </is>
-      </c>
       <c r="E1007" t="inlineStr">
         <is>
           <t>Ganz.5D</t>
@@ -34425,7 +34425,7 @@
       </c>
       <c r="F1007" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G1007" t="inlineStr">
@@ -34437,11 +34437,11 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>9-59.45</t>
+          <t>9-59.30</t>
         </is>
       </c>
       <c r="B1008">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C1008" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
       </c>
       <c r="E1008" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F1008" t="inlineStr">
@@ -34472,15 +34472,20 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>9-59.50</t>
+          <t>9-59.40</t>
         </is>
       </c>
       <c r="B1009">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>712</t>
         </is>
       </c>
       <c r="E1009" t="inlineStr">
@@ -34490,27 +34495,27 @@
       </c>
       <c r="F1009" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G1009" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>712</t>
         </is>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>9-59.55</t>
+          <t>9-59.45</t>
         </is>
       </c>
       <c r="B1010">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1010" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>712</t>
         </is>
       </c>
       <c r="D1010" t="inlineStr">
@@ -34525,32 +34530,27 @@
       </c>
       <c r="F1010" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G1010" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>712</t>
         </is>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>9-59.60</t>
+          <t>9-59.50</t>
         </is>
       </c>
       <c r="B1011">
-        <v>1</v>
-      </c>
-      <c r="C1011" t="inlineStr">
-        <is>
-          <t>721</t>
-        </is>
+        <v>5</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>931</t>
         </is>
       </c>
       <c r="E1011" t="inlineStr">
@@ -34560,23 +34560,23 @@
       </c>
       <c r="F1011" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G1011" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>931</t>
         </is>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>9-59.70</t>
+          <t>9-59.55</t>
         </is>
       </c>
       <c r="B1012">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C1012" t="inlineStr">
         <is>
@@ -34607,15 +34607,20 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>9-59.90</t>
+          <t>9-59.60</t>
         </is>
       </c>
       <c r="B1013">
-        <v>94</v>
+        <v>1</v>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>712</t>
         </is>
       </c>
       <c r="E1013" t="inlineStr">
@@ -34625,32 +34630,32 @@
       </c>
       <c r="F1013" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G1013" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>721</t>
         </is>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>9-61.30</t>
+          <t>9-59.70</t>
         </is>
       </c>
       <c r="B1014">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C1014" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>713</t>
         </is>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>712</t>
         </is>
       </c>
       <c r="E1014" t="inlineStr">
@@ -34660,58 +34665,53 @@
       </c>
       <c r="F1014" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G1014" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>713</t>
         </is>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>9-61.60</t>
+          <t>9-59.90</t>
         </is>
       </c>
       <c r="B1015">
-        <v>1</v>
-      </c>
-      <c r="C1015" t="inlineStr">
-        <is>
-          <t>816</t>
-        </is>
+        <v>94</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>714</t>
         </is>
       </c>
       <c r="E1015" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F1015" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G1015" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>714</t>
         </is>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>9-61.70</t>
+          <t>9-61.30</t>
         </is>
       </c>
       <c r="B1016">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1016" t="inlineStr">
         <is>
@@ -34742,11 +34742,11 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>9-61.90</t>
+          <t>9-61.60</t>
         </is>
       </c>
       <c r="B1017">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1017" t="inlineStr">
         <is>
@@ -34777,11 +34777,16 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>9-69.10</t>
+          <t>9-61.70</t>
         </is>
       </c>
       <c r="B1018">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -34795,7 +34800,7 @@
       </c>
       <c r="F1018" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G1018" t="inlineStr">
@@ -34807,11 +34812,11 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>9-69.20</t>
+          <t>9-61.90</t>
         </is>
       </c>
       <c r="B1019">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1019" t="inlineStr">
         <is>
@@ -34842,22 +34847,17 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>9-69.25</t>
+          <t>9-69.10</t>
         </is>
       </c>
       <c r="B1020">
-        <v>1</v>
-      </c>
-      <c r="C1020" t="inlineStr">
+        <v>34</v>
+      </c>
+      <c r="D1020" t="inlineStr">
         <is>
           <t>816</t>
         </is>
       </c>
-      <c r="D1020" t="inlineStr">
-        <is>
-          <t>816</t>
-        </is>
-      </c>
       <c r="E1020" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -34865,7 +34865,7 @@
       </c>
       <c r="F1020" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G1020" t="inlineStr">
@@ -34877,11 +34877,11 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>9-69.30</t>
+          <t>9-69.20</t>
         </is>
       </c>
       <c r="B1021">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C1021" t="inlineStr">
         <is>
@@ -34912,7 +34912,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>9-69.40</t>
+          <t>9-69.25</t>
         </is>
       </c>
       <c r="B1022">
@@ -34947,11 +34947,11 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>9-69.50</t>
+          <t>9-69.30</t>
         </is>
       </c>
       <c r="B1023">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C1023" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>9-69.60</t>
+          <t>9-69.40</t>
         </is>
       </c>
       <c r="B1024">
@@ -35017,11 +35017,11 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>9-69.80</t>
+          <t>9-69.50</t>
         </is>
       </c>
       <c r="B1025">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C1025" t="inlineStr">
         <is>
@@ -35052,81 +35052,81 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>9-71.20</t>
+          <t>9-69.60</t>
         </is>
       </c>
       <c r="B1026">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C1026" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>816</t>
         </is>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
-          <t>915</t>
+          <t>816</t>
         </is>
       </c>
       <c r="E1026" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F1026" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G1026" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>816</t>
         </is>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>9-71.30</t>
+          <t>9-69.80</t>
         </is>
       </c>
       <c r="B1027">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C1027" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>816</t>
         </is>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
-          <t>915</t>
+          <t>816</t>
         </is>
       </c>
       <c r="E1027" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F1027" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G1027" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>816</t>
         </is>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>9-71.35</t>
+          <t>9-71.20</t>
         </is>
       </c>
       <c r="B1028">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C1028" t="inlineStr">
         <is>
@@ -35135,17 +35135,17 @@
       </c>
       <c r="D1028" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>915</t>
         </is>
       </c>
       <c r="E1028" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F1028" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G1028" t="inlineStr">
@@ -35157,11 +35157,11 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>9-71.40</t>
+          <t>9-71.30</t>
         </is>
       </c>
       <c r="B1029">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C1029" t="inlineStr">
         <is>
@@ -35170,7 +35170,7 @@
       </c>
       <c r="D1029" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>915</t>
         </is>
       </c>
       <c r="E1029" t="inlineStr">
@@ -35192,11 +35192,11 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>9-71.45</t>
+          <t>9-71.35</t>
         </is>
       </c>
       <c r="B1030">
-        <v>312</v>
+        <v>10</v>
       </c>
       <c r="C1030" t="inlineStr">
         <is>
@@ -35227,46 +35227,51 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>9-71.50</t>
+          <t>9-71.40</t>
         </is>
       </c>
       <c r="B1031">
-        <v>281</v>
+        <v>1</v>
       </c>
       <c r="C1031" t="inlineStr">
         <is>
+          <t>933</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
           <t>932</t>
         </is>
       </c>
-      <c r="D1031" t="inlineStr">
+      <c r="E1031" t="inlineStr">
+        <is>
+          <t>Ganz.5D</t>
+        </is>
+      </c>
+      <c r="F1031" t="inlineStr">
+        <is>
+          <t>UNEQUAL</t>
+        </is>
+      </c>
+      <c r="G1031" t="inlineStr">
         <is>
           <t>933</t>
-        </is>
-      </c>
-      <c r="E1031" t="inlineStr">
-        <is>
-          <t>Ganz.3D</t>
-        </is>
-      </c>
-      <c r="F1031" t="inlineStr">
-        <is>
-          <t>UNEQUAL</t>
-        </is>
-      </c>
-      <c r="G1031" t="inlineStr">
-        <is>
-          <t>932</t>
         </is>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>9-71.55</t>
+          <t>9-71.45</t>
         </is>
       </c>
       <c r="B1032">
-        <v>105</v>
+        <v>312</v>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -35280,7 +35285,7 @@
       </c>
       <c r="F1032" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G1032" t="inlineStr">
@@ -35292,11 +35297,16 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>9-71.60</t>
+          <t>9-71.50</t>
         </is>
       </c>
       <c r="B1033">
-        <v>1</v>
+        <v>281</v>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -35310,28 +35320,23 @@
       </c>
       <c r="F1033" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G1033" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>932</t>
         </is>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>9-71.70</t>
+          <t>9-71.55</t>
         </is>
       </c>
       <c r="B1034">
-        <v>1</v>
-      </c>
-      <c r="C1034" t="inlineStr">
-        <is>
-          <t>829</t>
-        </is>
+        <v>105</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -35345,23 +35350,23 @@
       </c>
       <c r="F1034" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G1034" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>933</t>
         </is>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>9-71.90</t>
+          <t>9-71.60</t>
         </is>
       </c>
       <c r="B1035">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -35370,7 +35375,7 @@
       </c>
       <c r="E1035" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F1035" t="inlineStr">
@@ -35387,7 +35392,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>9-72.30</t>
+          <t>9-71.70</t>
         </is>
       </c>
       <c r="B1036">
@@ -35395,12 +35400,12 @@
       </c>
       <c r="C1036" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>829</t>
         </is>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>933</t>
         </is>
       </c>
       <c r="E1036" t="inlineStr">
@@ -35410,67 +35415,62 @@
       </c>
       <c r="F1036" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G1036" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>829</t>
         </is>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>9-72.40</t>
+          <t>9-71.90</t>
         </is>
       </c>
       <c r="B1037">
-        <v>1</v>
-      </c>
-      <c r="C1037" t="inlineStr">
-        <is>
-          <t>721</t>
-        </is>
+        <v>37</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>933</t>
         </is>
       </c>
       <c r="E1037" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F1037" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G1037" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>933</t>
         </is>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>9-73.20</t>
+          <t>9-72.30</t>
         </is>
       </c>
       <c r="B1038">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1038" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>721</t>
         </is>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>721</t>
         </is>
       </c>
       <c r="E1038" t="inlineStr">
@@ -35485,27 +35485,27 @@
       </c>
       <c r="G1038" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>721</t>
         </is>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>9-73.25</t>
+          <t>9-72.40</t>
         </is>
       </c>
       <c r="B1039">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1039" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>721</t>
         </is>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>721</t>
         </is>
       </c>
       <c r="E1039" t="inlineStr">
@@ -35520,18 +35520,18 @@
       </c>
       <c r="G1039" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>721</t>
         </is>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>9-73.30</t>
+          <t>9-73.20</t>
         </is>
       </c>
       <c r="B1040">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C1040" t="inlineStr">
         <is>
@@ -35562,11 +35562,11 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>9-73.35</t>
+          <t>9-73.25</t>
         </is>
       </c>
       <c r="B1041">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C1041" t="inlineStr">
         <is>
@@ -35597,11 +35597,11 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>9-73.50</t>
+          <t>9-73.30</t>
         </is>
       </c>
       <c r="B1042">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C1042" t="inlineStr">
         <is>
@@ -35632,11 +35632,11 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>9-73.90</t>
+          <t>9-73.35</t>
         </is>
       </c>
       <c r="B1043">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C1043" t="inlineStr">
         <is>
@@ -35650,7 +35650,7 @@
       </c>
       <c r="E1043" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F1043" t="inlineStr">
@@ -35667,11 +35667,11 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>9-74.20</t>
+          <t>9-73.50</t>
         </is>
       </c>
       <c r="B1044">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C1044" t="inlineStr">
         <is>
@@ -35702,11 +35702,11 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>9-74.30</t>
+          <t>9-73.90</t>
         </is>
       </c>
       <c r="B1045">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C1045" t="inlineStr">
         <is>
@@ -35720,7 +35720,7 @@
       </c>
       <c r="E1045" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F1045" t="inlineStr">
@@ -35737,11 +35737,11 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>9-74.35</t>
+          <t>9-74.20</t>
         </is>
       </c>
       <c r="B1046">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C1046" t="inlineStr">
         <is>
@@ -35772,11 +35772,11 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>9-74.40</t>
+          <t>9-74.30</t>
         </is>
       </c>
       <c r="B1047">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C1047" t="inlineStr">
         <is>
@@ -35807,11 +35807,11 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>9-74.45</t>
+          <t>9-74.35</t>
         </is>
       </c>
       <c r="B1048">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C1048" t="inlineStr">
         <is>
@@ -35842,11 +35842,11 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>9-74.50</t>
+          <t>9-74.40</t>
         </is>
       </c>
       <c r="B1049">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1049" t="inlineStr">
         <is>
@@ -35877,11 +35877,11 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>9-74.55</t>
+          <t>9-74.45</t>
         </is>
       </c>
       <c r="B1050">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C1050" t="inlineStr">
         <is>
@@ -35912,11 +35912,11 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>9-74.60</t>
+          <t>9-74.50</t>
         </is>
       </c>
       <c r="B1051">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1051" t="inlineStr">
         <is>
@@ -35947,15 +35947,15 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>9-74.70</t>
+          <t>9-74.55</t>
         </is>
       </c>
       <c r="B1052">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C1052" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>833</t>
         </is>
       </c>
       <c r="D1052" t="inlineStr">
@@ -35970,27 +35970,27 @@
       </c>
       <c r="F1052" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G1052" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>833</t>
         </is>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>9-74.75</t>
+          <t>9-74.60</t>
         </is>
       </c>
       <c r="B1053">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1053" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>833</t>
         </is>
       </c>
       <c r="D1053" t="inlineStr">
@@ -36005,34 +36005,34 @@
       </c>
       <c r="F1053" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G1053" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>833</t>
         </is>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>9-74.90</t>
+          <t>9-74.70</t>
         </is>
       </c>
       <c r="B1054">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1054" t="inlineStr">
         <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
           <t>833</t>
         </is>
       </c>
-      <c r="D1054" t="inlineStr">
-        <is>
-          <t>833</t>
-        </is>
-      </c>
       <c r="E1054" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -36040,34 +36040,34 @@
       </c>
       <c r="F1054" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G1054" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>712</t>
         </is>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>9-79.20</t>
+          <t>9-74.75</t>
         </is>
       </c>
       <c r="B1055">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="C1055" t="inlineStr">
         <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
           <t>833</t>
         </is>
       </c>
-      <c r="D1055" t="inlineStr">
-        <is>
-          <t>833</t>
-        </is>
-      </c>
       <c r="E1055" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -36075,27 +36075,27 @@
       </c>
       <c r="F1055" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G1055" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>821</t>
         </is>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>9-79.30</t>
+          <t>9-74.90</t>
         </is>
       </c>
       <c r="B1056">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C1056" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>833</t>
         </is>
       </c>
       <c r="D1056" t="inlineStr">
@@ -36110,23 +36110,23 @@
       </c>
       <c r="F1056" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G1056" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>833</t>
         </is>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>9-79.50</t>
+          <t>9-79.20</t>
         </is>
       </c>
       <c r="B1057">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C1057" t="inlineStr">
         <is>
@@ -36157,22 +36157,22 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>9-79.90</t>
+          <t>9-79.30</t>
         </is>
       </c>
       <c r="B1058">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="C1058" t="inlineStr">
         <is>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
           <t>833</t>
         </is>
       </c>
-      <c r="D1058" t="inlineStr">
-        <is>
-          <t>833</t>
-        </is>
-      </c>
       <c r="E1058" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -36180,32 +36180,32 @@
       </c>
       <c r="F1058" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G1058" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>832</t>
         </is>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>9-81.20</t>
+          <t>9-79.50</t>
         </is>
       </c>
       <c r="B1059">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1059" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>833</t>
         </is>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>833</t>
         </is>
       </c>
       <c r="E1059" t="inlineStr">
@@ -36220,27 +36220,27 @@
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>833</t>
         </is>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>9-81.30</t>
+          <t>9-79.90</t>
         </is>
       </c>
       <c r="B1060">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C1060" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>833</t>
         </is>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>833</t>
         </is>
       </c>
       <c r="E1060" t="inlineStr">
@@ -36255,18 +36255,18 @@
       </c>
       <c r="G1060" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>833</t>
         </is>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>9-81.40</t>
+          <t>9-81.20</t>
         </is>
       </c>
       <c r="B1061">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C1061" t="inlineStr">
         <is>
@@ -36297,11 +36297,11 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>9-81.90</t>
+          <t>9-81.30</t>
         </is>
       </c>
       <c r="B1062">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C1062" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
       </c>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F1062" t="inlineStr">
@@ -36332,20 +36332,20 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>9-82.20</t>
+          <t>9-81.40</t>
         </is>
       </c>
       <c r="B1063">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C1063" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>834</t>
         </is>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>834</t>
         </is>
       </c>
       <c r="E1063" t="inlineStr">
@@ -36360,53 +36360,58 @@
       </c>
       <c r="G1063" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>834</t>
         </is>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>9-82.30</t>
+          <t>9-81.90</t>
         </is>
       </c>
       <c r="B1064">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C1064" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>834</t>
         </is>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>834</t>
         </is>
       </c>
       <c r="E1064" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F1064" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G1064" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>834</t>
         </is>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>9-82.90</t>
+          <t>9-82.20</t>
         </is>
       </c>
       <c r="B1065">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -36420,7 +36425,7 @@
       </c>
       <c r="F1065" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G1065" t="inlineStr">
@@ -36432,57 +36437,52 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>9-83.20</t>
+          <t>9-82.30</t>
         </is>
       </c>
       <c r="B1066">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C1066" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>723</t>
         </is>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>816</t>
         </is>
       </c>
       <c r="E1066" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F1066" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G1066" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>723</t>
         </is>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>9-83.30</t>
+          <t>9-82.90</t>
         </is>
       </c>
       <c r="B1067">
-        <v>3</v>
-      </c>
-      <c r="C1067" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="D1067" t="inlineStr">
         <is>
           <t>816</t>
         </is>
       </c>
-      <c r="D1067" t="inlineStr">
-        <is>
-          <t>831</t>
-        </is>
-      </c>
       <c r="E1067" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -36490,7 +36490,7 @@
       </c>
       <c r="F1067" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G1067" t="inlineStr">
@@ -36502,11 +36502,11 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>9-83.40</t>
+          <t>9-83.20</t>
         </is>
       </c>
       <c r="B1068">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C1068" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
       </c>
       <c r="E1068" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F1068" t="inlineStr">
@@ -36537,22 +36537,22 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>9-83.50</t>
+          <t>9-83.30</t>
         </is>
       </c>
       <c r="B1069">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1069" t="inlineStr">
         <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
           <t>831</t>
         </is>
       </c>
-      <c r="D1069" t="inlineStr">
-        <is>
-          <t>831</t>
-        </is>
-      </c>
       <c r="E1069" t="inlineStr">
         <is>
           <t>Ganz.3D</t>
@@ -36560,23 +36560,23 @@
       </c>
       <c r="F1069" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G1069" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>816</t>
         </is>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>9-83.60</t>
+          <t>9-83.40</t>
         </is>
       </c>
       <c r="B1070">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1070" t="inlineStr">
         <is>
@@ -36607,11 +36607,11 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>9-83.90</t>
+          <t>9-83.50</t>
         </is>
       </c>
       <c r="B1071">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1071" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
       </c>
       <c r="E1071" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F1071" t="inlineStr">
@@ -36642,11 +36642,11 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>9-84.20</t>
+          <t>9-83.60</t>
         </is>
       </c>
       <c r="B1072">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C1072" t="inlineStr">
         <is>
@@ -36677,11 +36677,11 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>9-84.30</t>
+          <t>9-83.90</t>
         </is>
       </c>
       <c r="B1073">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1073" t="inlineStr">
         <is>
@@ -36695,7 +36695,7 @@
       </c>
       <c r="E1073" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F1073" t="inlineStr">
@@ -36712,11 +36712,11 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>9-84.40</t>
+          <t>9-84.20</t>
         </is>
       </c>
       <c r="B1074">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C1074" t="inlineStr">
         <is>
@@ -36747,11 +36747,11 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>9-84.50</t>
+          <t>9-84.30</t>
         </is>
       </c>
       <c r="B1075">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1075" t="inlineStr">
         <is>
@@ -36782,25 +36782,25 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>9-85.20</t>
+          <t>9-84.40</t>
         </is>
       </c>
       <c r="B1076">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C1076" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>831</t>
         </is>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>831</t>
         </is>
       </c>
       <c r="E1076" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F1076" t="inlineStr">
@@ -36810,32 +36810,32 @@
       </c>
       <c r="G1076" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>831</t>
         </is>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>9-85.30</t>
+          <t>9-84.50</t>
         </is>
       </c>
       <c r="B1077">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="C1077" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>831</t>
         </is>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>831</t>
         </is>
       </c>
       <c r="E1077" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F1077" t="inlineStr">
@@ -36845,18 +36845,18 @@
       </c>
       <c r="G1077" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>831</t>
         </is>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>9-85.40</t>
+          <t>9-85.20</t>
         </is>
       </c>
       <c r="B1078">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="C1078" t="inlineStr">
         <is>
@@ -36865,7 +36865,7 @@
       </c>
       <c r="D1078" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>832</t>
         </is>
       </c>
       <c r="E1078" t="inlineStr">
@@ -36875,7 +36875,7 @@
       </c>
       <c r="F1078" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G1078" t="inlineStr">
@@ -36887,11 +36887,11 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>9-85.50</t>
+          <t>9-85.30</t>
         </is>
       </c>
       <c r="B1079">
-        <v>819</v>
+        <v>256</v>
       </c>
       <c r="C1079" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
       </c>
       <c r="D1079" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>832</t>
         </is>
       </c>
       <c r="E1079" t="inlineStr">
@@ -36910,7 +36910,7 @@
       </c>
       <c r="F1079" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G1079" t="inlineStr">
@@ -36922,11 +36922,11 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>9-85.60</t>
+          <t>9-85.40</t>
         </is>
       </c>
       <c r="B1080">
-        <v>387</v>
+        <v>140</v>
       </c>
       <c r="C1080" t="inlineStr">
         <is>
@@ -36935,17 +36935,17 @@
       </c>
       <c r="D1080" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>933</t>
         </is>
       </c>
       <c r="E1080" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F1080" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G1080" t="inlineStr">
@@ -36957,11 +36957,11 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>9-85.70</t>
+          <t>9-85.50</t>
         </is>
       </c>
       <c r="B1081">
-        <v>1</v>
+        <v>819</v>
       </c>
       <c r="C1081" t="inlineStr">
         <is>
@@ -36970,17 +36970,17 @@
       </c>
       <c r="D1081" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>334</t>
         </is>
       </c>
       <c r="E1081" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F1081" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G1081" t="inlineStr">
@@ -36992,11 +36992,16 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>9-85.90</t>
+          <t>9-85.60</t>
         </is>
       </c>
       <c r="B1082">
-        <v>95</v>
+        <v>387</v>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
@@ -37005,12 +37010,12 @@
       </c>
       <c r="E1082" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F1082" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G1082" t="inlineStr">
@@ -37022,7 +37027,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>9-89.30</t>
+          <t>9-85.70</t>
         </is>
       </c>
       <c r="B1083">
@@ -37030,7 +37035,7 @@
       </c>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>832</t>
         </is>
       </c>
       <c r="D1083" t="inlineStr">
@@ -37045,28 +37050,23 @@
       </c>
       <c r="F1083" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="G1083" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>832</t>
         </is>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>9-89.50</t>
+          <t>9-85.90</t>
         </is>
       </c>
       <c r="B1084">
-        <v>129</v>
-      </c>
-      <c r="C1084" t="inlineStr">
-        <is>
-          <t>933</t>
-        </is>
+        <v>95</v>
       </c>
       <c r="D1084" t="inlineStr">
         <is>
@@ -37075,75 +37075,145 @@
       </c>
       <c r="E1084" t="inlineStr">
         <is>
-          <t>Ganz.3D</t>
+          <t>Ganz.5D</t>
         </is>
       </c>
       <c r="F1084" t="inlineStr">
         <is>
-          <t>UNEQUAL</t>
+          <t>CAPS missing</t>
         </is>
       </c>
       <c r="G1084" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>832</t>
         </is>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>9-89.90</t>
+          <t>9-89.30</t>
         </is>
       </c>
       <c r="B1085">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>833</t>
+        </is>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>832</t>
         </is>
       </c>
       <c r="E1085" t="inlineStr">
         <is>
-          <t>Ganz.5D</t>
+          <t>Ganz.3D</t>
         </is>
       </c>
       <c r="F1085" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
+          <t>UNEQUAL</t>
         </is>
       </c>
       <c r="G1085" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>833</t>
         </is>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
+          <t>9-89.50</t>
+        </is>
+      </c>
+      <c r="B1086">
+        <v>129</v>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="E1086" t="inlineStr">
+        <is>
+          <t>Ganz.3D</t>
+        </is>
+      </c>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>UNEQUAL</t>
+        </is>
+      </c>
+      <c r="G1086" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>9-89.90</t>
+        </is>
+      </c>
+      <c r="B1087">
+        <v>2</v>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+      <c r="E1087" t="inlineStr">
+        <is>
+          <t>Ganz.5D</t>
+        </is>
+      </c>
+      <c r="F1087" t="inlineStr">
+        <is>
+          <t>CAPS missing</t>
+        </is>
+      </c>
+      <c r="G1087" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
           <t>9-99.10</t>
         </is>
       </c>
-      <c r="B1086">
+      <c r="B1088">
         <v>674</v>
       </c>
-      <c r="D1086" t="inlineStr">
+      <c r="D1088" t="inlineStr">
         <is>
           <t>932</t>
         </is>
       </c>
-      <c r="E1086" t="inlineStr">
+      <c r="E1088" t="inlineStr">
         <is>
           <t>Ganz.5D</t>
         </is>
       </c>
-      <c r="F1086" t="inlineStr">
+      <c r="F1088" t="inlineStr">
         <is>
           <t>CAPS missing</t>
         </is>
       </c>
-      <c r="G1086" t="inlineStr">
+      <c r="G1088" t="inlineStr">
         <is>
           <t>932</t>
         </is>

--- a/MONO131/CANJEM_IPUMS analysis/intermediate data/isco68to88V1.xlsx
+++ b/MONO131/CANJEM_IPUMS analysis/intermediate data/isco68to88V1.xlsx
@@ -410,7 +410,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Both missing</t>
+          <t>IPUMS Military</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9125,12 +9130,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
-        </is>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>310</t>
+          <t>Low resolution</t>
         </is>
       </c>
     </row>
@@ -11350,12 +11350,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
-        </is>
-      </c>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>410</t>
+          <t>Low resolution</t>
         </is>
       </c>
     </row>
@@ -11520,12 +11515,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
-        </is>
-      </c>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>410</t>
+          <t>Low resolution</t>
         </is>
       </c>
     </row>
@@ -33125,12 +33115,7 @@
       </c>
       <c r="F969" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
-        </is>
-      </c>
-      <c r="G969" t="inlineStr">
-        <is>
-          <t>840</t>
+          <t>Low resolution</t>
         </is>
       </c>
     </row>

--- a/MONO131/CANJEM_IPUMS analysis/intermediate data/isco68to88V1.xlsx
+++ b/MONO131/CANJEM_IPUMS analysis/intermediate data/isco68to88V1.xlsx
@@ -16650,12 +16650,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
-        </is>
-      </c>
-      <c r="G480" t="inlineStr">
-        <is>
-          <t>751</t>
+          <t>supervisors</t>
         </is>
       </c>
     </row>
@@ -16680,12 +16675,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
-        </is>
-      </c>
-      <c r="G481" t="inlineStr">
-        <is>
-          <t>751</t>
+          <t>supervisors</t>
         </is>
       </c>
     </row>
@@ -16710,12 +16700,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
-        </is>
-      </c>
-      <c r="G482" t="inlineStr">
-        <is>
-          <t>751</t>
+          <t>supervisors</t>
         </is>
       </c>
     </row>
@@ -16740,12 +16725,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
-        </is>
-      </c>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>751</t>
+          <t>supervisors</t>
         </is>
       </c>
     </row>
@@ -16770,12 +16750,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
-        </is>
-      </c>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>751</t>
+          <t>supervisors</t>
         </is>
       </c>
     </row>
@@ -16800,12 +16775,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
-        </is>
-      </c>
-      <c r="G485" t="inlineStr">
-        <is>
-          <t>751</t>
+          <t>supervisors</t>
         </is>
       </c>
     </row>
@@ -16830,12 +16800,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
-        </is>
-      </c>
-      <c r="G486" t="inlineStr">
-        <is>
-          <t>751</t>
+          <t>supervisors</t>
         </is>
       </c>
     </row>
@@ -16860,12 +16825,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
-        </is>
-      </c>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>751</t>
+          <t>supervisors</t>
         </is>
       </c>
     </row>
@@ -16890,12 +16850,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
-        </is>
-      </c>
-      <c r="G488" t="inlineStr">
-        <is>
-          <t>751</t>
+          <t>supervisors</t>
         </is>
       </c>
     </row>
@@ -16920,12 +16875,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
-        </is>
-      </c>
-      <c r="G489" t="inlineStr">
-        <is>
-          <t>751</t>
+          <t>supervisors</t>
         </is>
       </c>
     </row>
@@ -16950,12 +16900,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
-        </is>
-      </c>
-      <c r="G490" t="inlineStr">
-        <is>
-          <t>751</t>
+          <t>supervisors</t>
         </is>
       </c>
     </row>
@@ -16980,12 +16925,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>CAPS missing</t>
-        </is>
-      </c>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>751</t>
+          <t>supervisors</t>
         </is>
       </c>
     </row>
